--- a/Table/Table_xls/z造型对应表.xlsx
+++ b/Table/Table_xls/z造型对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 全身原画像</t>
         </r>
       </text>
@@ -42,11 +41,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 即半身像ID</t>
         </r>
       </text>
@@ -56,11 +54,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 普通攻击时近程还是远程
 0=近程
 1=远程</t>
@@ -72,11 +69,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 默认1
 不能进行位移填 0</t>
         </r>
@@ -87,11 +83,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 0=不染色
 1=染色</t>
         </r>
@@ -102,11 +97,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 填部件颜色方案</t>
         </r>
       </text>
@@ -116,11 +110,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 关联关联装备表武器ID</t>
         </r>
       </text>
@@ -130,11 +123,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 关联坐骑造型ID</t>
         </r>
       </text>
@@ -144,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="634">
   <si>
     <t>造型id</t>
   </si>
@@ -2542,12 +2534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2621,15 +2613,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2658,17 +2651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2682,6 +2666,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2689,16 +2681,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2728,34 +2750,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="57">
@@ -2923,19 +2920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2953,13 +2956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,13 +2980,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2989,49 +3046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,55 +3076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3123,15 +3120,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3143,6 +3131,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3162,28 +3165,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3217,6 +3203,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3225,10 +3222,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3237,31 +3234,31 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3270,100 +3267,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="53" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3912,6 +3909,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4238,44 +4240,43 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Z456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B421" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E454" sqref="E454"/>
+      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="21"/>
-    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="26.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="11.5714285714286" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.4285714285714" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.1238095238095" customWidth="1"/>
-    <col min="8" max="9" width="9.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="23.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="22.1428571428571" customWidth="1"/>
-    <col min="12" max="13" width="16.3904761904762" customWidth="1"/>
-    <col min="14" max="14" width="11.1809523809524" customWidth="1"/>
-    <col min="15" max="17" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.57407407407407" style="21"/>
+    <col min="2" max="2" width="24.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="26.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="11.5740740740741" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.4259259259259" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.5740740740741" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.1203703703704" customWidth="1"/>
+    <col min="8" max="9" width="9.13888888888889" customWidth="1"/>
+    <col min="10" max="10" width="23.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="22.1388888888889" customWidth="1"/>
+    <col min="12" max="13" width="16.3888888888889" customWidth="1"/>
+    <col min="14" max="14" width="11.1851851851852" customWidth="1"/>
+    <col min="15" max="17" width="9.13888888888889" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="11.2857142857143" customWidth="1"/>
-    <col min="20" max="20" width="29.8571428571429" customWidth="1"/>
-    <col min="25" max="25" width="15.8571428571429" customWidth="1"/>
-    <col min="26" max="26" width="22.8571428571429" customWidth="1"/>
-    <col min="27" max="27" width="21.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="11.287037037037" customWidth="1"/>
+    <col min="20" max="20" width="29.8611111111111" customWidth="1"/>
+    <col min="25" max="25" width="15.8611111111111" customWidth="1"/>
+    <col min="26" max="26" width="22.8611111111111" customWidth="1"/>
+    <col min="27" max="27" width="21.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:20">
@@ -4340,7 +4341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="14.4" spans="1:26">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="T2" s="25"/>
       <c r="Z2" s="74"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -4453,7 +4454,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="4" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -4509,7 +4510,7 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="5" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -4565,7 +4566,7 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="6" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="7" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -4677,7 +4678,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:24">
+    <row r="8" s="1" customFormat="1" ht="14.4" spans="1:24">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -4737,7 +4738,7 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="9" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -4793,7 +4794,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="10" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -5345,7 +5346,7 @@
       </c>
       <c r="S19" s="36"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="20" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A20" s="29">
         <v>1000101</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="69"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="21" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A21" s="29">
         <v>1000102</v>
       </c>
@@ -5457,7 +5458,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="69"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="22" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A22" s="29">
         <v>1000103</v>
       </c>
@@ -5513,7 +5514,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="69"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="23" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A23" s="29">
         <v>1000104</v>
       </c>
@@ -5569,7 +5570,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="69"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="24" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A24" s="29">
         <v>1000105</v>
       </c>
@@ -5625,7 +5626,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="69"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="25" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A25" s="29">
         <v>1000106</v>
       </c>
@@ -5681,7 +5682,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="69"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A26" s="29">
         <v>1000107</v>
       </c>
@@ -5737,7 +5738,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="70"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="27" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A27" s="29">
         <v>1000108</v>
       </c>
@@ -5793,7 +5794,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="70"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="28" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A28" s="29">
         <v>1000109</v>
       </c>
@@ -7365,7 +7366,7 @@
       <c r="S55" s="36"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="56" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A56" s="54">
         <v>1011101</v>
       </c>
@@ -7421,7 +7422,7 @@
       <c r="S56" s="54"/>
       <c r="T56" s="54"/>
     </row>
-    <row r="57" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="57" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A57" s="54">
         <v>1011102</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="S57" s="54"/>
       <c r="T57" s="54"/>
     </row>
-    <row r="58" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="58" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A58" s="54">
         <v>1011103</v>
       </c>
@@ -7533,7 +7534,7 @@
       <c r="S58" s="54"/>
       <c r="T58" s="54"/>
     </row>
-    <row r="59" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="59" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A59" s="54">
         <v>1011104</v>
       </c>
@@ -7589,7 +7590,7 @@
       <c r="S59" s="54"/>
       <c r="T59" s="54"/>
     </row>
-    <row r="60" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="60" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A60" s="54">
         <v>1011105</v>
       </c>
@@ -7645,7 +7646,7 @@
       <c r="S60" s="54"/>
       <c r="T60" s="54"/>
     </row>
-    <row r="61" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="61" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A61" s="54">
         <v>1011106</v>
       </c>
@@ -7701,7 +7702,7 @@
       <c r="S61" s="54"/>
       <c r="T61" s="54"/>
     </row>
-    <row r="62" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="62" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A62" s="54">
         <v>1011107</v>
       </c>
@@ -7757,7 +7758,7 @@
       <c r="S62" s="54"/>
       <c r="T62" s="54"/>
     </row>
-    <row r="63" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="63" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A63" s="54">
         <v>1011108</v>
       </c>
@@ -7813,7 +7814,7 @@
       <c r="S63" s="54"/>
       <c r="T63" s="54"/>
     </row>
-    <row r="64" s="5" customFormat="1" ht="13.5" spans="1:20">
+    <row r="64" s="5" customFormat="1" ht="14.4" spans="1:20">
       <c r="A64" s="54">
         <v>1011109</v>
       </c>
@@ -8373,7 +8374,7 @@
       <c r="S73" s="36"/>
       <c r="T73" s="18"/>
     </row>
-    <row r="74" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="74" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A74" s="75">
         <v>1110112</v>
       </c>
@@ -8425,7 +8426,7 @@
       <c r="S74" s="78"/>
       <c r="T74" s="78"/>
     </row>
-    <row r="75" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="75" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A75" s="75">
         <v>1110113</v>
       </c>
@@ -8477,7 +8478,7 @@
       <c r="S75" s="78"/>
       <c r="T75" s="78"/>
     </row>
-    <row r="76" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="76" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A76" s="75">
         <v>1110114</v>
       </c>
@@ -8529,7 +8530,7 @@
       <c r="S76" s="78"/>
       <c r="T76" s="78"/>
     </row>
-    <row r="77" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="77" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A77" s="75">
         <v>1110115</v>
       </c>
@@ -8581,7 +8582,7 @@
       <c r="S77" s="78"/>
       <c r="T77" s="78"/>
     </row>
-    <row r="78" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="78" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A78" s="75">
         <v>1110116</v>
       </c>
@@ -8633,7 +8634,7 @@
       <c r="S78" s="78"/>
       <c r="T78" s="78"/>
     </row>
-    <row r="79" s="6" customFormat="1" ht="13.5" spans="1:20">
+    <row r="79" s="6" customFormat="1" ht="14.4" spans="1:20">
       <c r="A79" s="75">
         <v>1110117</v>
       </c>
@@ -8685,7 +8686,7 @@
       <c r="S79" s="78"/>
       <c r="T79" s="78"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="80" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A80" s="75">
         <v>1010119</v>
       </c>
@@ -8737,7 +8738,7 @@
       <c r="S80" s="25"/>
       <c r="T80" s="75"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="81" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A81" s="75">
         <v>1010120</v>
       </c>
@@ -8789,7 +8790,7 @@
       <c r="S81" s="25"/>
       <c r="T81" s="75"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="82" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A82" s="75">
         <v>1010121</v>
       </c>
@@ -8841,7 +8842,7 @@
       <c r="S82" s="25"/>
       <c r="T82" s="75"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="83" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A83" s="75">
         <v>1010122</v>
       </c>
@@ -8893,7 +8894,7 @@
       <c r="S83" s="25"/>
       <c r="T83" s="75"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="84" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A84" s="75">
         <v>1010124</v>
       </c>
@@ -8945,7 +8946,7 @@
       <c r="S84" s="25"/>
       <c r="T84" s="75"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="85" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A85" s="75">
         <v>1010125</v>
       </c>
@@ -8997,7 +8998,7 @@
       <c r="S85" s="25"/>
       <c r="T85" s="75"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="86" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A86" s="75">
         <v>1010126</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="75"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="87" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A87" s="75">
         <v>1010127</v>
       </c>
@@ -9101,7 +9102,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="75"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="88" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A88" s="75">
         <v>1010128</v>
       </c>
@@ -9153,7 +9154,7 @@
       <c r="S88" s="25"/>
       <c r="T88" s="75"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="89" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A89" s="75">
         <v>1010129</v>
       </c>
@@ -9205,7 +9206,7 @@
       <c r="S89" s="25"/>
       <c r="T89" s="75"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="90" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A90" s="75">
         <v>1010130</v>
       </c>
@@ -9255,7 +9256,7 @@
       <c r="S90" s="25"/>
       <c r="T90" s="75"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="91" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A91" s="75">
         <v>1010131</v>
       </c>
@@ -9307,7 +9308,7 @@
       <c r="S91" s="25"/>
       <c r="T91" s="75"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="92" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A92" s="75">
         <v>1010132</v>
       </c>
@@ -9359,7 +9360,7 @@
       <c r="S92" s="25"/>
       <c r="T92" s="75"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="93" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A93" s="75">
         <v>1010133</v>
       </c>
@@ -9411,7 +9412,7 @@
       <c r="S93" s="25"/>
       <c r="T93" s="75"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="94" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A94" s="75">
         <v>1010134</v>
       </c>
@@ -9463,7 +9464,7 @@
       <c r="S94" s="25"/>
       <c r="T94" s="75"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="95" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A95" s="75">
         <v>1010135</v>
       </c>
@@ -9515,7 +9516,7 @@
       <c r="S95" s="25"/>
       <c r="T95" s="75"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="96" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A96" s="75">
         <v>1010136</v>
       </c>
@@ -9567,7 +9568,7 @@
       <c r="S96" s="25"/>
       <c r="T96" s="75"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="97" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A97" s="75">
         <v>1010137</v>
       </c>
@@ -9617,7 +9618,7 @@
       <c r="S97" s="25"/>
       <c r="T97" s="75"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="98" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A98" s="75">
         <v>1010138</v>
       </c>
@@ -9669,7 +9670,7 @@
       <c r="S98" s="25"/>
       <c r="T98" s="75"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="99" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A99" s="75">
         <v>1010140</v>
       </c>
@@ -9721,7 +9722,7 @@
       <c r="S99" s="25"/>
       <c r="T99" s="75"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="100" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A100" s="75">
         <v>1010142</v>
       </c>
@@ -9773,7 +9774,7 @@
       <c r="S100" s="25"/>
       <c r="T100" s="75"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="101" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A101" s="75">
         <v>1010146</v>
       </c>
@@ -9825,7 +9826,7 @@
       <c r="S101" s="25"/>
       <c r="T101" s="75"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="102" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A102" s="75">
         <v>1010147</v>
       </c>
@@ -9877,7 +9878,7 @@
       <c r="S102" s="25"/>
       <c r="T102" s="75"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="103" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A103" s="75">
         <v>1010148</v>
       </c>
@@ -9929,7 +9930,7 @@
       <c r="S103" s="25"/>
       <c r="T103" s="75"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="104" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A104" s="75">
         <v>1010149</v>
       </c>
@@ -9981,7 +9982,7 @@
       <c r="S104" s="25"/>
       <c r="T104" s="75"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="105" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A105" s="75">
         <v>1010150</v>
       </c>
@@ -10033,7 +10034,7 @@
       <c r="S105" s="25"/>
       <c r="T105" s="75"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="106" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A106" s="75">
         <v>1010151</v>
       </c>
@@ -10085,7 +10086,7 @@
       <c r="S106" s="25"/>
       <c r="T106" s="75"/>
     </row>
-    <row r="107" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="107" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A107" s="75">
         <v>1010152</v>
       </c>
@@ -10137,7 +10138,7 @@
       <c r="S107" s="25"/>
       <c r="T107" s="75"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="108" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A108" s="75">
         <v>1010160</v>
       </c>
@@ -10189,7 +10190,7 @@
       <c r="S108" s="25"/>
       <c r="T108" s="75"/>
     </row>
-    <row r="109" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="109" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A109" s="75">
         <v>1010166</v>
       </c>
@@ -10241,7 +10242,7 @@
       <c r="S109" s="25"/>
       <c r="T109" s="75"/>
     </row>
-    <row r="110" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="110" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A110" s="75">
         <v>1010167</v>
       </c>
@@ -10293,7 +10294,7 @@
       <c r="S110" s="25"/>
       <c r="T110" s="75"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="111" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A111" s="75">
         <v>1010168</v>
       </c>
@@ -10345,7 +10346,7 @@
       <c r="S111" s="25"/>
       <c r="T111" s="75"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="112" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A112" s="75">
         <v>1010171</v>
       </c>
@@ -10397,7 +10398,7 @@
       <c r="S112" s="25"/>
       <c r="T112" s="75"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="113" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A113" s="75">
         <v>1010172</v>
       </c>
@@ -10449,7 +10450,7 @@
       <c r="S113" s="25"/>
       <c r="T113" s="75"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="114" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A114" s="75">
         <v>1010173</v>
       </c>
@@ -10501,7 +10502,7 @@
       <c r="S114" s="25"/>
       <c r="T114" s="75"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="115" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A115" s="75">
         <v>1010174</v>
       </c>
@@ -10553,7 +10554,7 @@
       <c r="S115" s="25"/>
       <c r="T115" s="75"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="116" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A116" s="75">
         <v>1010175</v>
       </c>
@@ -10605,7 +10606,7 @@
       <c r="S116" s="25"/>
       <c r="T116" s="75"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="117" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A117" s="75">
         <v>1010176</v>
       </c>
@@ -10705,7 +10706,7 @@
       <c r="S118" s="105"/>
       <c r="T118" s="91"/>
     </row>
-    <row r="119" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="119" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A119" s="95">
         <v>1010178</v>
       </c>
@@ -10757,7 +10758,7 @@
       <c r="S119" s="107"/>
       <c r="T119" s="95"/>
     </row>
-    <row r="120" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="120" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A120" s="95">
         <v>1010179</v>
       </c>
@@ -10809,7 +10810,7 @@
       <c r="S120" s="107"/>
       <c r="T120" s="95"/>
     </row>
-    <row r="121" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="121" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A121" s="95">
         <v>1010180</v>
       </c>
@@ -12547,7 +12548,7 @@
       <c r="V153" s="105"/>
       <c r="W153" s="105"/>
     </row>
-    <row r="154" s="12" customFormat="1" ht="13.5" spans="1:23">
+    <row r="154" s="12" customFormat="1" ht="14.4" spans="1:23">
       <c r="A154" s="115">
         <v>1020133</v>
       </c>
@@ -12605,7 +12606,7 @@
       <c r="V154" s="115"/>
       <c r="W154" s="115"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="13.5" spans="1:23">
+    <row r="155" s="1" customFormat="1" ht="14.4" spans="1:23">
       <c r="A155" s="119">
         <v>1020134</v>
       </c>
@@ -12663,7 +12664,7 @@
       <c r="V155" s="25"/>
       <c r="W155" s="25"/>
     </row>
-    <row r="156" s="1" customFormat="1" ht="13.5" spans="1:23">
+    <row r="156" s="1" customFormat="1" ht="14.4" spans="1:23">
       <c r="A156" s="119">
         <v>1020135</v>
       </c>
@@ -12721,7 +12722,7 @@
       <c r="V156" s="25"/>
       <c r="W156" s="25"/>
     </row>
-    <row r="157" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="157" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A157" s="48">
         <v>1020136</v>
       </c>
@@ -12777,7 +12778,7 @@
       <c r="S157" s="48"/>
       <c r="T157" s="92"/>
     </row>
-    <row r="158" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="158" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A158" s="119">
         <v>1020137</v>
       </c>
@@ -12833,7 +12834,7 @@
       <c r="S158" s="25"/>
       <c r="T158" s="131"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="159" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A159" s="119">
         <v>1020138</v>
       </c>
@@ -12889,7 +12890,7 @@
       <c r="S159" s="25"/>
       <c r="T159" s="132"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="160" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A160" s="119">
         <v>1020139</v>
       </c>
@@ -12945,7 +12946,7 @@
       <c r="S160" s="25"/>
       <c r="T160" s="132"/>
     </row>
-    <row r="161" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="161" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A161" s="119">
         <v>1020140</v>
       </c>
@@ -13001,7 +13002,7 @@
       <c r="S161" s="25"/>
       <c r="T161" s="132"/>
     </row>
-    <row r="162" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="162" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A162" s="115">
         <v>1020141</v>
       </c>
@@ -13057,7 +13058,7 @@
       <c r="S162" s="115"/>
       <c r="T162" s="130"/>
     </row>
-    <row r="163" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="163" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A163" s="119">
         <v>1020142</v>
       </c>
@@ -13113,7 +13114,7 @@
       <c r="S163" s="25"/>
       <c r="T163" s="131"/>
     </row>
-    <row r="164" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="164" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A164" s="119">
         <v>1020143</v>
       </c>
@@ -13169,7 +13170,7 @@
       <c r="S164" s="25"/>
       <c r="T164" s="131"/>
     </row>
-    <row r="165" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="165" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A165" s="119">
         <v>1020144</v>
       </c>
@@ -13225,7 +13226,7 @@
       <c r="S165" s="25"/>
       <c r="T165" s="131"/>
     </row>
-    <row r="166" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="166" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A166" s="119">
         <v>1020145</v>
       </c>
@@ -13281,7 +13282,7 @@
       <c r="S166" s="25"/>
       <c r="T166" s="131"/>
     </row>
-    <row r="167" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="167" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A167" s="119">
         <v>1020146</v>
       </c>
@@ -13337,7 +13338,7 @@
       <c r="S167" s="25"/>
       <c r="T167" s="131"/>
     </row>
-    <row r="168" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="168" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A168" s="119">
         <v>1020147</v>
       </c>
@@ -13393,7 +13394,7 @@
       <c r="S168" s="25"/>
       <c r="T168" s="131"/>
     </row>
-    <row r="169" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="169" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A169" s="119">
         <v>1020148</v>
       </c>
@@ -13449,7 +13450,7 @@
       <c r="S169" s="25"/>
       <c r="T169" s="131"/>
     </row>
-    <row r="170" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="170" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A170" s="119">
         <v>1020149</v>
       </c>
@@ -13505,7 +13506,7 @@
       <c r="S170" s="25"/>
       <c r="T170" s="131"/>
     </row>
-    <row r="171" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="171" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A171" s="115">
         <v>1030001</v>
       </c>
@@ -13561,7 +13562,7 @@
       <c r="S171" s="115"/>
       <c r="T171" s="130"/>
     </row>
-    <row r="172" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="172" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A172" s="124">
         <v>1030002</v>
       </c>
@@ -13617,7 +13618,7 @@
       <c r="S172" s="124"/>
       <c r="T172" s="135"/>
     </row>
-    <row r="173" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="173" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A173" s="124">
         <v>1030003</v>
       </c>
@@ -13673,7 +13674,7 @@
       <c r="S173" s="124"/>
       <c r="T173" s="135"/>
     </row>
-    <row r="174" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="174" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A174" s="124">
         <v>1030004</v>
       </c>
@@ -13725,7 +13726,7 @@
       <c r="S174" s="124"/>
       <c r="T174" s="135"/>
     </row>
-    <row r="175" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="175" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A175" s="124">
         <v>1030005</v>
       </c>
@@ -13777,7 +13778,7 @@
       <c r="S175" s="124"/>
       <c r="T175" s="135"/>
     </row>
-    <row r="176" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="176" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A176" s="124">
         <v>1030006</v>
       </c>
@@ -13833,7 +13834,7 @@
       <c r="S176" s="124"/>
       <c r="T176" s="135"/>
     </row>
-    <row r="177" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="177" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A177" s="124">
         <v>1030007</v>
       </c>
@@ -13889,7 +13890,7 @@
       <c r="S177" s="124"/>
       <c r="T177" s="135"/>
     </row>
-    <row r="178" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="178" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A178" s="124">
         <v>1030008</v>
       </c>
@@ -13945,7 +13946,7 @@
       <c r="S178" s="124"/>
       <c r="T178" s="135"/>
     </row>
-    <row r="179" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="179" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A179" s="124">
         <v>1030009</v>
       </c>
@@ -14001,7 +14002,7 @@
       <c r="S179" s="124"/>
       <c r="T179" s="135"/>
     </row>
-    <row r="180" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="180" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A180" s="115">
         <v>1030010</v>
       </c>
@@ -14057,7 +14058,7 @@
       <c r="S180" s="115"/>
       <c r="T180" s="130"/>
     </row>
-    <row r="181" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="181" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A181" s="115">
         <v>1030011</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="S181" s="115"/>
       <c r="T181" s="130"/>
     </row>
-    <row r="182" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="182" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A182" s="124">
         <v>1030012</v>
       </c>
@@ -14169,7 +14170,7 @@
       <c r="S182" s="124"/>
       <c r="T182" s="135"/>
     </row>
-    <row r="183" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="183" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A183" s="124">
         <v>1030013</v>
       </c>
@@ -14221,7 +14222,7 @@
       <c r="S183" s="124"/>
       <c r="T183" s="135"/>
     </row>
-    <row r="184" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="184" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A184" s="124">
         <v>1030014</v>
       </c>
@@ -14273,7 +14274,7 @@
       <c r="S184" s="124"/>
       <c r="T184" s="135"/>
     </row>
-    <row r="185" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="185" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A185" s="124">
         <v>1030015</v>
       </c>
@@ -14325,7 +14326,7 @@
       <c r="S185" s="124"/>
       <c r="T185" s="135"/>
     </row>
-    <row r="186" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="186" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A186" s="124">
         <v>1030016</v>
       </c>
@@ -14377,7 +14378,7 @@
       <c r="S186" s="124"/>
       <c r="T186" s="135"/>
     </row>
-    <row r="187" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="187" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A187" s="124">
         <v>1030017</v>
       </c>
@@ -14429,7 +14430,7 @@
       <c r="S187" s="124"/>
       <c r="T187" s="135"/>
     </row>
-    <row r="188" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="188" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A188" s="115">
         <v>1030018</v>
       </c>
@@ -14485,7 +14486,7 @@
       <c r="S188" s="115"/>
       <c r="T188" s="130"/>
     </row>
-    <row r="189" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="189" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A189" s="115">
         <v>1030019</v>
       </c>
@@ -14541,7 +14542,7 @@
       <c r="S189" s="115"/>
       <c r="T189" s="130"/>
     </row>
-    <row r="190" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="190" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A190" s="115">
         <v>1030020</v>
       </c>
@@ -14597,7 +14598,7 @@
       <c r="S190" s="115"/>
       <c r="T190" s="130"/>
     </row>
-    <row r="191" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="191" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A191" s="115">
         <v>1030021</v>
       </c>
@@ -14653,7 +14654,7 @@
       <c r="S191" s="115"/>
       <c r="T191" s="130"/>
     </row>
-    <row r="192" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="192" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A192" s="115">
         <v>1030022</v>
       </c>
@@ -14709,7 +14710,7 @@
       <c r="S192" s="115"/>
       <c r="T192" s="130"/>
     </row>
-    <row r="193" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="193" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A193" s="115">
         <v>1030023</v>
       </c>
@@ -14765,7 +14766,7 @@
       <c r="S193" s="115"/>
       <c r="T193" s="130"/>
     </row>
-    <row r="194" s="13" customFormat="1" ht="13.5" spans="1:20">
+    <row r="194" s="13" customFormat="1" ht="14.4" spans="1:20">
       <c r="A194" s="115">
         <v>1030024</v>
       </c>
@@ -14815,7 +14816,7 @@
       <c r="S194" s="137"/>
       <c r="T194" s="136"/>
     </row>
-    <row r="195" s="13" customFormat="1" ht="13.5" spans="1:20">
+    <row r="195" s="13" customFormat="1" ht="14.4" spans="1:20">
       <c r="A195" s="115">
         <v>1030025</v>
       </c>
@@ -14865,7 +14866,7 @@
       <c r="S195" s="137"/>
       <c r="T195" s="136"/>
     </row>
-    <row r="196" s="13" customFormat="1" ht="13.5" spans="1:20">
+    <row r="196" s="13" customFormat="1" ht="14.4" spans="1:20">
       <c r="A196" s="115">
         <v>1030026</v>
       </c>
@@ -14915,7 +14916,7 @@
       <c r="S196" s="137"/>
       <c r="T196" s="136"/>
     </row>
-    <row r="197" s="13" customFormat="1" ht="13.5" spans="1:20">
+    <row r="197" s="13" customFormat="1" ht="14.4" spans="1:20">
       <c r="A197" s="115">
         <v>1030027</v>
       </c>
@@ -14965,7 +14966,7 @@
       <c r="S197" s="137"/>
       <c r="T197" s="136"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="198" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A198" s="134">
         <v>1040101</v>
       </c>
@@ -15021,7 +15022,7 @@
       <c r="S198" s="134"/>
       <c r="T198" s="134"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="199" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A199" s="134">
         <v>1040102</v>
       </c>
@@ -15077,7 +15078,7 @@
       <c r="S199" s="134"/>
       <c r="T199" s="134"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="200" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A200" s="134">
         <v>1040103</v>
       </c>
@@ -15133,7 +15134,7 @@
       <c r="S200" s="134"/>
       <c r="T200" s="134"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="201" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A201" s="134">
         <v>1040104</v>
       </c>
@@ -15189,7 +15190,7 @@
       <c r="S201" s="134"/>
       <c r="T201" s="134"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="202" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A202" s="134">
         <v>1040105</v>
       </c>
@@ -15245,7 +15246,7 @@
       <c r="S202" s="134"/>
       <c r="T202" s="134"/>
     </row>
-    <row r="203" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="203" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A203" s="134">
         <v>1040106</v>
       </c>
@@ -15301,7 +15302,7 @@
       <c r="S203" s="134"/>
       <c r="T203" s="134"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="204" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A204" s="134">
         <v>1040107</v>
       </c>
@@ -15357,7 +15358,7 @@
       <c r="S204" s="134"/>
       <c r="T204" s="134"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="205" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A205" s="134">
         <v>1040108</v>
       </c>
@@ -15413,7 +15414,7 @@
       <c r="S205" s="134"/>
       <c r="T205" s="134"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="206" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A206" s="134">
         <v>1040109</v>
       </c>
@@ -15469,7 +15470,7 @@
       <c r="S206" s="134"/>
       <c r="T206" s="134"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="207" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A207" s="134">
         <v>1040110</v>
       </c>
@@ -15525,7 +15526,7 @@
       <c r="S207" s="134"/>
       <c r="T207" s="134"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="208" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A208" s="134">
         <v>1040111</v>
       </c>
@@ -15581,7 +15582,7 @@
       <c r="S208" s="134"/>
       <c r="T208" s="134"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="209" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A209" s="134">
         <v>1040112</v>
       </c>
@@ -15693,7 +15694,7 @@
       <c r="S210" s="134"/>
       <c r="T210" s="134"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="211" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A211" s="134">
         <v>1040114</v>
       </c>
@@ -15749,7 +15750,7 @@
       <c r="S211" s="134"/>
       <c r="T211" s="134"/>
     </row>
-    <row r="212" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="212" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A212" s="134">
         <v>1040115</v>
       </c>
@@ -15805,7 +15806,7 @@
       <c r="S212" s="134"/>
       <c r="T212" s="134"/>
     </row>
-    <row r="213" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="213" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A213" s="134">
         <v>1040116</v>
       </c>
@@ -15861,7 +15862,7 @@
       <c r="S213" s="134"/>
       <c r="T213" s="134"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="214" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A214" s="138">
         <v>1040117</v>
       </c>
@@ -15917,7 +15918,7 @@
       <c r="S214" s="138"/>
       <c r="T214" s="138"/>
     </row>
-    <row r="215" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="215" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A215" s="138">
         <v>1040118</v>
       </c>
@@ -15973,7 +15974,7 @@
       <c r="S215" s="138"/>
       <c r="T215" s="138"/>
     </row>
-    <row r="216" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="216" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A216" s="138">
         <v>1040119</v>
       </c>
@@ -16029,7 +16030,7 @@
       <c r="S216" s="138"/>
       <c r="T216" s="138"/>
     </row>
-    <row r="217" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="217" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A217" s="138">
         <v>1040120</v>
       </c>
@@ -16085,7 +16086,7 @@
       <c r="S217" s="138"/>
       <c r="T217" s="138"/>
     </row>
-    <row r="218" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="218" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A218" s="138">
         <v>1040121</v>
       </c>
@@ -16141,7 +16142,7 @@
       <c r="S218" s="138"/>
       <c r="T218" s="138"/>
     </row>
-    <row r="219" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="219" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A219" s="138">
         <v>1040122</v>
       </c>
@@ -16197,7 +16198,7 @@
       <c r="S219" s="138"/>
       <c r="T219" s="138"/>
     </row>
-    <row r="220" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="220" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A220" s="138">
         <v>1040123</v>
       </c>
@@ -16253,7 +16254,7 @@
       <c r="S220" s="138"/>
       <c r="T220" s="138"/>
     </row>
-    <row r="221" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="221" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A221" s="138">
         <v>1040124</v>
       </c>
@@ -16309,7 +16310,7 @@
       <c r="S221" s="138"/>
       <c r="T221" s="138"/>
     </row>
-    <row r="222" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="222" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A222" s="138">
         <v>1040125</v>
       </c>
@@ -16365,7 +16366,7 @@
       <c r="S222" s="138"/>
       <c r="T222" s="138"/>
     </row>
-    <row r="223" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="223" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A223" s="138">
         <v>1040126</v>
       </c>
@@ -16421,7 +16422,7 @@
       <c r="S223" s="138"/>
       <c r="T223" s="138"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="224" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A224" s="138">
         <v>1040127</v>
       </c>
@@ -16477,7 +16478,7 @@
       <c r="S224" s="138"/>
       <c r="T224" s="138"/>
     </row>
-    <row r="225" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="225" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A225" s="138">
         <v>1040128</v>
       </c>
@@ -16533,7 +16534,7 @@
       <c r="S225" s="138"/>
       <c r="T225" s="138"/>
     </row>
-    <row r="226" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="226" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A226" s="138">
         <v>1040129</v>
       </c>
@@ -16589,7 +16590,7 @@
       <c r="S226" s="138"/>
       <c r="T226" s="138"/>
     </row>
-    <row r="227" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="227" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A227" s="138">
         <v>1040130</v>
       </c>
@@ -16645,7 +16646,7 @@
       <c r="S227" s="138"/>
       <c r="T227" s="138"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="228" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A228" s="138">
         <v>1040131</v>
       </c>
@@ -16701,7 +16702,7 @@
       <c r="S228" s="138"/>
       <c r="T228" s="138"/>
     </row>
-    <row r="229" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="229" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A229" s="138">
         <v>1040132</v>
       </c>
@@ -16757,7 +16758,7 @@
       <c r="S229" s="138"/>
       <c r="T229" s="138"/>
     </row>
-    <row r="230" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="230" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A230" s="139">
         <v>1040133</v>
       </c>
@@ -16813,7 +16814,7 @@
       <c r="S230" s="139"/>
       <c r="T230" s="154"/>
     </row>
-    <row r="231" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="231" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A231" s="139">
         <v>1040134</v>
       </c>
@@ -16869,7 +16870,7 @@
       <c r="S231" s="139"/>
       <c r="T231" s="139"/>
     </row>
-    <row r="232" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="232" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A232" s="139">
         <v>1040135</v>
       </c>
@@ -16925,7 +16926,7 @@
       <c r="S232" s="139"/>
       <c r="T232" s="139"/>
     </row>
-    <row r="233" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="233" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A233" s="139">
         <v>1040136</v>
       </c>
@@ -16981,7 +16982,7 @@
       <c r="S233" s="139"/>
       <c r="T233" s="139"/>
     </row>
-    <row r="234" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="234" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A234" s="139">
         <v>1040137</v>
       </c>
@@ -17037,7 +17038,7 @@
       <c r="S234" s="139"/>
       <c r="T234" s="139"/>
     </row>
-    <row r="235" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="235" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A235" s="139">
         <v>1040138</v>
       </c>
@@ -17093,7 +17094,7 @@
       <c r="S235" s="139"/>
       <c r="T235" s="139"/>
     </row>
-    <row r="236" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="236" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A236" s="139">
         <v>1040139</v>
       </c>
@@ -17149,7 +17150,7 @@
       <c r="S236" s="139"/>
       <c r="T236" s="139"/>
     </row>
-    <row r="237" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="237" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A237" s="139">
         <v>1040140</v>
       </c>
@@ -17205,7 +17206,7 @@
       <c r="S237" s="139"/>
       <c r="T237" s="139"/>
     </row>
-    <row r="238" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="238" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A238" s="139">
         <v>1040141</v>
       </c>
@@ -17261,7 +17262,7 @@
       <c r="S238" s="139"/>
       <c r="T238" s="139"/>
     </row>
-    <row r="239" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="239" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A239" s="139">
         <v>1040142</v>
       </c>
@@ -17317,7 +17318,7 @@
       <c r="S239" s="139"/>
       <c r="T239" s="139"/>
     </row>
-    <row r="240" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="240" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A240" s="139">
         <v>1040143</v>
       </c>
@@ -17373,7 +17374,7 @@
       <c r="S240" s="139"/>
       <c r="T240" s="139"/>
     </row>
-    <row r="241" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="241" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A241" s="139">
         <v>1040144</v>
       </c>
@@ -17429,7 +17430,7 @@
       <c r="S241" s="139"/>
       <c r="T241" s="139"/>
     </row>
-    <row r="242" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="242" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A242" s="139">
         <v>1040145</v>
       </c>
@@ -17485,7 +17486,7 @@
       <c r="S242" s="139"/>
       <c r="T242" s="139"/>
     </row>
-    <row r="243" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="243" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A243" s="139">
         <v>1040146</v>
       </c>
@@ -17541,7 +17542,7 @@
       <c r="S243" s="139"/>
       <c r="T243" s="139"/>
     </row>
-    <row r="244" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="244" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A244" s="115">
         <v>1040147</v>
       </c>
@@ -17597,7 +17598,7 @@
       <c r="S244" s="115"/>
       <c r="T244" s="115"/>
     </row>
-    <row r="245" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="245" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A245" s="139">
         <v>1040148</v>
       </c>
@@ -17653,7 +17654,7 @@
       <c r="S245" s="139"/>
       <c r="T245" s="139"/>
     </row>
-    <row r="246" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="246" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A246" s="115">
         <v>1050101</v>
       </c>
@@ -17705,7 +17706,7 @@
       <c r="S246" s="115"/>
       <c r="T246" s="115"/>
     </row>
-    <row r="247" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="247" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A247" s="144">
         <v>1050102</v>
       </c>
@@ -17761,7 +17762,7 @@
       <c r="S247" s="144"/>
       <c r="T247" s="144"/>
     </row>
-    <row r="248" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="248" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A248" s="144">
         <v>1050103</v>
       </c>
@@ -17817,7 +17818,7 @@
       <c r="S248" s="144"/>
       <c r="T248" s="144"/>
     </row>
-    <row r="249" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="249" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A249" s="144">
         <v>1050104</v>
       </c>
@@ -17873,7 +17874,7 @@
       <c r="S249" s="144"/>
       <c r="T249" s="144"/>
     </row>
-    <row r="250" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="250" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A250" s="144">
         <v>1050105</v>
       </c>
@@ -17929,7 +17930,7 @@
       <c r="S250" s="144"/>
       <c r="T250" s="144"/>
     </row>
-    <row r="251" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="251" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A251" s="147">
         <v>1060101</v>
       </c>
@@ -17985,7 +17986,7 @@
       <c r="S251" s="147"/>
       <c r="T251" s="147"/>
     </row>
-    <row r="252" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="252" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A252" s="147">
         <v>1060102</v>
       </c>
@@ -18041,7 +18042,7 @@
       <c r="S252" s="147"/>
       <c r="T252" s="147"/>
     </row>
-    <row r="253" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="253" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A253" s="147">
         <v>1060103</v>
       </c>
@@ -18093,7 +18094,7 @@
       <c r="S253" s="147"/>
       <c r="T253" s="147"/>
     </row>
-    <row r="254" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="254" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A254" s="147">
         <v>1060104</v>
       </c>
@@ -18149,7 +18150,7 @@
       <c r="S254" s="147"/>
       <c r="T254" s="147"/>
     </row>
-    <row r="255" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="255" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A255" s="147">
         <v>1060105</v>
       </c>
@@ -18205,7 +18206,7 @@
       <c r="S255" s="147"/>
       <c r="T255" s="147"/>
     </row>
-    <row r="256" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="256" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A256" s="147">
         <v>1060106</v>
       </c>
@@ -18261,7 +18262,7 @@
       <c r="S256" s="147"/>
       <c r="T256" s="147"/>
     </row>
-    <row r="257" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="257" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A257" s="155">
         <v>1070101</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="258" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A258" s="155">
         <v>1080101</v>
       </c>
@@ -18369,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="259" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A259" s="155">
         <v>1080102</v>
       </c>
@@ -18423,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="260" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A260" s="155">
         <v>1080103</v>
       </c>
@@ -18477,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="261" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A261" s="155">
         <v>1080104</v>
       </c>
@@ -18531,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="262" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A262" s="155">
         <v>1080105</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="263" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A263" s="155">
         <v>1080106</v>
       </c>
@@ -18639,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="264" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A264" s="155">
         <v>1080107</v>
       </c>
@@ -18693,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="265" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A265" s="155">
         <v>1080108</v>
       </c>
@@ -18747,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" s="1" customFormat="1" ht="13.5" spans="1:18">
+    <row r="266" s="1" customFormat="1" ht="14.4" spans="1:18">
       <c r="A266" s="155">
         <v>1080109</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="267" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A267" s="155">
         <v>1080110</v>
       </c>
@@ -18857,7 +18858,7 @@
       <c r="S267" s="25"/>
       <c r="T267" s="75"/>
     </row>
-    <row r="268" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="268" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A268" s="36">
         <v>2010111</v>
       </c>
@@ -18909,7 +18910,7 @@
       <c r="S268" s="36"/>
       <c r="T268" s="36"/>
     </row>
-    <row r="269" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="269" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A269" s="36">
         <v>2010112</v>
       </c>
@@ -18961,7 +18962,7 @@
       <c r="S269" s="36"/>
       <c r="T269" s="36"/>
     </row>
-    <row r="270" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="270" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A270" s="36">
         <v>2010113</v>
       </c>
@@ -19013,7 +19014,7 @@
       <c r="S270" s="36"/>
       <c r="T270" s="36"/>
     </row>
-    <row r="271" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="271" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A271" s="36">
         <v>2010114</v>
       </c>
@@ -19065,7 +19066,7 @@
       <c r="S271" s="36"/>
       <c r="T271" s="36"/>
     </row>
-    <row r="272" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="272" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A272" s="36">
         <v>2010115</v>
       </c>
@@ -19117,7 +19118,7 @@
       <c r="S272" s="36"/>
       <c r="T272" s="36"/>
     </row>
-    <row r="273" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="273" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A273" s="36">
         <v>2010116</v>
       </c>
@@ -19169,7 +19170,7 @@
       <c r="S273" s="36"/>
       <c r="T273" s="36"/>
     </row>
-    <row r="274" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="274" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A274" s="36">
         <v>2010117</v>
       </c>
@@ -19221,7 +19222,7 @@
       <c r="S274" s="36"/>
       <c r="T274" s="36"/>
     </row>
-    <row r="275" s="2" customFormat="1" ht="13.5" spans="1:20">
+    <row r="275" s="2" customFormat="1" ht="14.4" spans="1:20">
       <c r="A275" s="36">
         <v>2010118</v>
       </c>
@@ -19273,7 +19274,7 @@
       <c r="S275" s="36"/>
       <c r="T275" s="36"/>
     </row>
-    <row r="276" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="276" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A276" s="75">
         <v>2010121</v>
       </c>
@@ -19325,7 +19326,7 @@
       <c r="S276" s="25"/>
       <c r="T276" s="75"/>
     </row>
-    <row r="277" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="277" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A277" s="75">
         <v>2010122</v>
       </c>
@@ -19377,7 +19378,7 @@
       <c r="S277" s="25"/>
       <c r="T277" s="75"/>
     </row>
-    <row r="278" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="278" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A278" s="75">
         <v>2010124</v>
       </c>
@@ -19429,7 +19430,7 @@
       <c r="S278" s="25"/>
       <c r="T278" s="75"/>
     </row>
-    <row r="279" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="279" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A279" s="75">
         <v>2010125</v>
       </c>
@@ -19481,7 +19482,7 @@
       <c r="S279" s="25"/>
       <c r="T279" s="75"/>
     </row>
-    <row r="280" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="280" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A280" s="75">
         <v>2010126</v>
       </c>
@@ -19533,7 +19534,7 @@
       <c r="S280" s="25"/>
       <c r="T280" s="75"/>
     </row>
-    <row r="281" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="281" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A281" s="75">
         <v>2010127</v>
       </c>
@@ -19585,7 +19586,7 @@
       <c r="S281" s="25"/>
       <c r="T281" s="75"/>
     </row>
-    <row r="282" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="282" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A282" s="75">
         <v>2010128</v>
       </c>
@@ -19637,7 +19638,7 @@
       <c r="S282" s="25"/>
       <c r="T282" s="75"/>
     </row>
-    <row r="283" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="283" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A283" s="75">
         <v>2010129</v>
       </c>
@@ -19689,7 +19690,7 @@
       <c r="S283" s="25"/>
       <c r="T283" s="75"/>
     </row>
-    <row r="284" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="284" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A284" s="75">
         <v>2010130</v>
       </c>
@@ -19737,7 +19738,7 @@
       <c r="S284" s="25"/>
       <c r="T284" s="75"/>
     </row>
-    <row r="285" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="285" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A285" s="75">
         <v>2010131</v>
       </c>
@@ -19789,7 +19790,7 @@
       <c r="S285" s="25"/>
       <c r="T285" s="75"/>
     </row>
-    <row r="286" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="286" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A286" s="75">
         <v>2010132</v>
       </c>
@@ -19841,7 +19842,7 @@
       <c r="S286" s="25"/>
       <c r="T286" s="75"/>
     </row>
-    <row r="287" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="287" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A287" s="75">
         <v>2010133</v>
       </c>
@@ -19893,7 +19894,7 @@
       <c r="S287" s="25"/>
       <c r="T287" s="75"/>
     </row>
-    <row r="288" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="288" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A288" s="75">
         <v>2010134</v>
       </c>
@@ -19945,7 +19946,7 @@
       <c r="S288" s="25"/>
       <c r="T288" s="75"/>
     </row>
-    <row r="289" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="289" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A289" s="75">
         <v>2010135</v>
       </c>
@@ -19997,7 +19998,7 @@
       <c r="S289" s="25"/>
       <c r="T289" s="75"/>
     </row>
-    <row r="290" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="290" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A290" s="75">
         <v>2010136</v>
       </c>
@@ -20049,7 +20050,7 @@
       <c r="S290" s="25"/>
       <c r="T290" s="75"/>
     </row>
-    <row r="291" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="291" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A291" s="75">
         <v>2010137</v>
       </c>
@@ -20097,7 +20098,7 @@
       <c r="S291" s="25"/>
       <c r="T291" s="75"/>
     </row>
-    <row r="292" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="292" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A292" s="75">
         <v>2010138</v>
       </c>
@@ -20149,7 +20150,7 @@
       <c r="S292" s="25"/>
       <c r="T292" s="75"/>
     </row>
-    <row r="293" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="293" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A293" s="75">
         <v>2010140</v>
       </c>
@@ -20201,7 +20202,7 @@
       <c r="S293" s="25"/>
       <c r="T293" s="75"/>
     </row>
-    <row r="294" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="294" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A294" s="75">
         <v>2010142</v>
       </c>
@@ -20253,7 +20254,7 @@
       <c r="S294" s="25"/>
       <c r="T294" s="75"/>
     </row>
-    <row r="295" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="295" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A295" s="75">
         <v>2010146</v>
       </c>
@@ -20305,7 +20306,7 @@
       <c r="S295" s="25"/>
       <c r="T295" s="75"/>
     </row>
-    <row r="296" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="296" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A296" s="75">
         <v>2010147</v>
       </c>
@@ -20357,7 +20358,7 @@
       <c r="S296" s="25"/>
       <c r="T296" s="75"/>
     </row>
-    <row r="297" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="297" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A297" s="75">
         <v>2010148</v>
       </c>
@@ -20409,7 +20410,7 @@
       <c r="S297" s="25"/>
       <c r="T297" s="75"/>
     </row>
-    <row r="298" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="298" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A298" s="75">
         <v>2010149</v>
       </c>
@@ -20461,7 +20462,7 @@
       <c r="S298" s="25"/>
       <c r="T298" s="75"/>
     </row>
-    <row r="299" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="299" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A299" s="75">
         <v>2010150</v>
       </c>
@@ -20513,7 +20514,7 @@
       <c r="S299" s="25"/>
       <c r="T299" s="75"/>
     </row>
-    <row r="300" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="300" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A300" s="75">
         <v>2010151</v>
       </c>
@@ -20565,7 +20566,7 @@
       <c r="S300" s="25"/>
       <c r="T300" s="75"/>
     </row>
-    <row r="301" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="301" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A301" s="75">
         <v>2010152</v>
       </c>
@@ -20617,7 +20618,7 @@
       <c r="S301" s="25"/>
       <c r="T301" s="75"/>
     </row>
-    <row r="302" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="302" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A302" s="75">
         <v>2010160</v>
       </c>
@@ -20669,7 +20670,7 @@
       <c r="S302" s="25"/>
       <c r="T302" s="75"/>
     </row>
-    <row r="303" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="303" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A303" s="75">
         <v>2010166</v>
       </c>
@@ -20721,7 +20722,7 @@
       <c r="S303" s="25"/>
       <c r="T303" s="75"/>
     </row>
-    <row r="304" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="304" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A304" s="75">
         <v>2010167</v>
       </c>
@@ -20773,7 +20774,7 @@
       <c r="S304" s="25"/>
       <c r="T304" s="75"/>
     </row>
-    <row r="305" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="305" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A305" s="75">
         <v>2010168</v>
       </c>
@@ -20825,7 +20826,7 @@
       <c r="S305" s="25"/>
       <c r="T305" s="75"/>
     </row>
-    <row r="306" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="306" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A306" s="75">
         <v>2010171</v>
       </c>
@@ -20877,7 +20878,7 @@
       <c r="S306" s="25"/>
       <c r="T306" s="75"/>
     </row>
-    <row r="307" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="307" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A307" s="75">
         <v>2010172</v>
       </c>
@@ -20929,7 +20930,7 @@
       <c r="S307" s="25"/>
       <c r="T307" s="75"/>
     </row>
-    <row r="308" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="308" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A308" s="75">
         <v>2010173</v>
       </c>
@@ -20981,7 +20982,7 @@
       <c r="S308" s="25"/>
       <c r="T308" s="75"/>
     </row>
-    <row r="309" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="309" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A309" s="75">
         <v>2010174</v>
       </c>
@@ -21033,7 +21034,7 @@
       <c r="S309" s="25"/>
       <c r="T309" s="75"/>
     </row>
-    <row r="310" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="310" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A310" s="75">
         <v>2010175</v>
       </c>
@@ -21085,7 +21086,7 @@
       <c r="S310" s="25"/>
       <c r="T310" s="75"/>
     </row>
-    <row r="311" s="1" customFormat="1" ht="13.5" spans="1:20">
+    <row r="311" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A311" s="75">
         <v>2010176</v>
       </c>
@@ -21137,7 +21138,7 @@
       <c r="S311" s="25"/>
       <c r="T311" s="75"/>
     </row>
-    <row r="312" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="312" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A312" s="95">
         <v>2010178</v>
       </c>
@@ -21189,7 +21190,7 @@
       <c r="S312" s="107"/>
       <c r="T312" s="95"/>
     </row>
-    <row r="313" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="313" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A313" s="95">
         <v>2010179</v>
       </c>
@@ -21241,7 +21242,7 @@
       <c r="S313" s="107"/>
       <c r="T313" s="95"/>
     </row>
-    <row r="314" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="314" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A314" s="95">
         <v>2010180</v>
       </c>
@@ -21293,7 +21294,7 @@
       <c r="S314" s="107"/>
       <c r="T314" s="95"/>
     </row>
-    <row r="315" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="315" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A315" s="48">
         <v>1530000</v>
       </c>
@@ -21345,7 +21346,7 @@
       <c r="S315" s="48"/>
       <c r="T315" s="48"/>
     </row>
-    <row r="316" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="316" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A316" s="48">
         <v>1530001</v>
       </c>
@@ -21397,7 +21398,7 @@
       <c r="S316" s="48"/>
       <c r="T316" s="48"/>
     </row>
-    <row r="317" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="317" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A317" s="48">
         <v>1530004</v>
       </c>
@@ -21449,7 +21450,7 @@
       <c r="S317" s="48"/>
       <c r="T317" s="48"/>
     </row>
-    <row r="318" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="318" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A318" s="48">
         <v>1530005</v>
       </c>
@@ -21501,7 +21502,7 @@
       <c r="S318" s="48"/>
       <c r="T318" s="48"/>
     </row>
-    <row r="319" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="319" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A319" s="48">
         <v>1530008</v>
       </c>
@@ -21553,7 +21554,7 @@
       <c r="S319" s="48"/>
       <c r="T319" s="48"/>
     </row>
-    <row r="320" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="320" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A320" s="48">
         <v>1530009</v>
       </c>
@@ -21605,7 +21606,7 @@
       <c r="S320" s="48"/>
       <c r="T320" s="48"/>
     </row>
-    <row r="321" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="321" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A321" s="48">
         <v>1530012</v>
       </c>
@@ -21657,7 +21658,7 @@
       <c r="S321" s="48"/>
       <c r="T321" s="48"/>
     </row>
-    <row r="322" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="322" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A322" s="48">
         <v>1530013</v>
       </c>
@@ -21709,7 +21710,7 @@
       <c r="S322" s="48"/>
       <c r="T322" s="48"/>
     </row>
-    <row r="323" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="323" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A323" s="48">
         <v>1530016</v>
       </c>
@@ -21761,7 +21762,7 @@
       <c r="S323" s="48"/>
       <c r="T323" s="48"/>
     </row>
-    <row r="324" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="324" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A324" s="48">
         <v>1530017</v>
       </c>
@@ -21813,7 +21814,7 @@
       <c r="S324" s="48"/>
       <c r="T324" s="48"/>
     </row>
-    <row r="325" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="325" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A325" s="48">
         <v>1530020</v>
       </c>
@@ -21865,7 +21866,7 @@
       <c r="S325" s="48"/>
       <c r="T325" s="48"/>
     </row>
-    <row r="326" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="326" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A326" s="48">
         <v>1530021</v>
       </c>
@@ -21917,7 +21918,7 @@
       <c r="S326" s="48"/>
       <c r="T326" s="48"/>
     </row>
-    <row r="327" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="327" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A327" s="48">
         <v>1530024</v>
       </c>
@@ -21969,7 +21970,7 @@
       <c r="S327" s="48"/>
       <c r="T327" s="48"/>
     </row>
-    <row r="328" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="328" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A328" s="48">
         <v>1530025</v>
       </c>
@@ -22021,7 +22022,7 @@
       <c r="S328" s="48"/>
       <c r="T328" s="48"/>
     </row>
-    <row r="329" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="329" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A329" s="48">
         <v>1530028</v>
       </c>
@@ -22073,7 +22074,7 @@
       <c r="S329" s="48"/>
       <c r="T329" s="48"/>
     </row>
-    <row r="330" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="330" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A330" s="48">
         <v>1530029</v>
       </c>
@@ -22125,7 +22126,7 @@
       <c r="S330" s="48"/>
       <c r="T330" s="48"/>
     </row>
-    <row r="331" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="331" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A331" s="48">
         <v>1530032</v>
       </c>
@@ -22177,7 +22178,7 @@
       <c r="S331" s="48"/>
       <c r="T331" s="48"/>
     </row>
-    <row r="332" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="332" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A332" s="48">
         <v>1530033</v>
       </c>
@@ -22229,7 +22230,7 @@
       <c r="S332" s="48"/>
       <c r="T332" s="48"/>
     </row>
-    <row r="333" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="333" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A333" s="48">
         <v>1530036</v>
       </c>
@@ -22281,7 +22282,7 @@
       <c r="S333" s="48"/>
       <c r="T333" s="48"/>
     </row>
-    <row r="334" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="334" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A334" s="48">
         <v>1530037</v>
       </c>
@@ -22333,7 +22334,7 @@
       <c r="S334" s="48"/>
       <c r="T334" s="48"/>
     </row>
-    <row r="335" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="335" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A335" s="48">
         <v>1530040</v>
       </c>
@@ -22385,7 +22386,7 @@
       <c r="S335" s="48"/>
       <c r="T335" s="48"/>
     </row>
-    <row r="336" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="336" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A336" s="48">
         <v>1530041</v>
       </c>
@@ -22437,7 +22438,7 @@
       <c r="S336" s="48"/>
       <c r="T336" s="48"/>
     </row>
-    <row r="337" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="337" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A337" s="48">
         <v>1530044</v>
       </c>
@@ -22489,7 +22490,7 @@
       <c r="S337" s="48"/>
       <c r="T337" s="48"/>
     </row>
-    <row r="338" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="338" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A338" s="48">
         <v>1530045</v>
       </c>
@@ -22541,7 +22542,7 @@
       <c r="S338" s="48"/>
       <c r="T338" s="48"/>
     </row>
-    <row r="339" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="339" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A339" s="48">
         <v>1530048</v>
       </c>
@@ -22593,7 +22594,7 @@
       <c r="S339" s="48"/>
       <c r="T339" s="48"/>
     </row>
-    <row r="340" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="340" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A340" s="48">
         <v>1530049</v>
       </c>
@@ -22645,7 +22646,7 @@
       <c r="S340" s="48"/>
       <c r="T340" s="48"/>
     </row>
-    <row r="341" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="341" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A341" s="48">
         <v>1530052</v>
       </c>
@@ -22697,7 +22698,7 @@
       <c r="S341" s="48"/>
       <c r="T341" s="48"/>
     </row>
-    <row r="342" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="342" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A342" s="48">
         <v>1530053</v>
       </c>
@@ -22749,7 +22750,7 @@
       <c r="S342" s="48"/>
       <c r="T342" s="48"/>
     </row>
-    <row r="343" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="343" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A343" s="48">
         <v>1530056</v>
       </c>
@@ -22801,7 +22802,7 @@
       <c r="S343" s="48"/>
       <c r="T343" s="48"/>
     </row>
-    <row r="344" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="344" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A344" s="48">
         <v>1530057</v>
       </c>
@@ -22853,7 +22854,7 @@
       <c r="S344" s="48"/>
       <c r="T344" s="48"/>
     </row>
-    <row r="345" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="345" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A345" s="48">
         <v>1530060</v>
       </c>
@@ -22905,7 +22906,7 @@
       <c r="S345" s="48"/>
       <c r="T345" s="48"/>
     </row>
-    <row r="346" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="346" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A346" s="48">
         <v>1530061</v>
       </c>
@@ -22957,7 +22958,7 @@
       <c r="S346" s="48"/>
       <c r="T346" s="48"/>
     </row>
-    <row r="347" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="347" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A347" s="48">
         <v>1530064</v>
       </c>
@@ -23009,7 +23010,7 @@
       <c r="S347" s="48"/>
       <c r="T347" s="48"/>
     </row>
-    <row r="348" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="348" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A348" s="48">
         <v>1530065</v>
       </c>
@@ -23061,7 +23062,7 @@
       <c r="S348" s="48"/>
       <c r="T348" s="48"/>
     </row>
-    <row r="349" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="349" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A349" s="48">
         <v>1530068</v>
       </c>
@@ -23113,7 +23114,7 @@
       <c r="S349" s="48"/>
       <c r="T349" s="48"/>
     </row>
-    <row r="350" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="350" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A350" s="48">
         <v>1530069</v>
       </c>
@@ -23165,7 +23166,7 @@
       <c r="S350" s="48"/>
       <c r="T350" s="48"/>
     </row>
-    <row r="351" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="351" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A351" s="48">
         <v>1530072</v>
       </c>
@@ -23217,7 +23218,7 @@
       <c r="S351" s="48"/>
       <c r="T351" s="48"/>
     </row>
-    <row r="352" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="352" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A352" s="48">
         <v>1530073</v>
       </c>
@@ -23269,7 +23270,7 @@
       <c r="S352" s="48"/>
       <c r="T352" s="48"/>
     </row>
-    <row r="353" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="353" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A353" s="48">
         <v>1530076</v>
       </c>
@@ -23321,7 +23322,7 @@
       <c r="S353" s="48"/>
       <c r="T353" s="48"/>
     </row>
-    <row r="354" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="354" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A354" s="48">
         <v>1530077</v>
       </c>
@@ -23373,7 +23374,7 @@
       <c r="S354" s="48"/>
       <c r="T354" s="48"/>
     </row>
-    <row r="355" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="355" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A355" s="48">
         <v>1530080</v>
       </c>
@@ -23425,7 +23426,7 @@
       <c r="S355" s="48"/>
       <c r="T355" s="48"/>
     </row>
-    <row r="356" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="356" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A356" s="48">
         <v>1530081</v>
       </c>
@@ -23477,7 +23478,7 @@
       <c r="S356" s="48"/>
       <c r="T356" s="48"/>
     </row>
-    <row r="357" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="357" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A357" s="48">
         <v>1530084</v>
       </c>
@@ -23529,7 +23530,7 @@
       <c r="S357" s="48"/>
       <c r="T357" s="48"/>
     </row>
-    <row r="358" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="358" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A358" s="48">
         <v>1530085</v>
       </c>
@@ -23581,7 +23582,7 @@
       <c r="S358" s="48"/>
       <c r="T358" s="48"/>
     </row>
-    <row r="359" s="14" customFormat="1" ht="13.5" spans="1:20">
+    <row r="359" s="14" customFormat="1" ht="14.4" spans="1:20">
       <c r="A359" s="164">
         <v>1530088</v>
       </c>
@@ -23633,7 +23634,7 @@
       <c r="S359" s="164"/>
       <c r="T359" s="164"/>
     </row>
-    <row r="360" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="360" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A360" s="48">
         <v>1530089</v>
       </c>
@@ -23685,7 +23686,7 @@
       <c r="S360" s="48"/>
       <c r="T360" s="48"/>
     </row>
-    <row r="361" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="361" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A361" s="48">
         <v>1530092</v>
       </c>
@@ -23737,7 +23738,7 @@
       <c r="S361" s="48"/>
       <c r="T361" s="48"/>
     </row>
-    <row r="362" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="362" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A362" s="48">
         <v>1530093</v>
       </c>
@@ -23789,7 +23790,7 @@
       <c r="S362" s="48"/>
       <c r="T362" s="48"/>
     </row>
-    <row r="363" s="14" customFormat="1" ht="13.5" spans="1:20">
+    <row r="363" s="14" customFormat="1" ht="14.4" spans="1:20">
       <c r="A363" s="164">
         <v>1530096</v>
       </c>
@@ -23841,7 +23842,7 @@
       <c r="S363" s="164"/>
       <c r="T363" s="164"/>
     </row>
-    <row r="364" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="364" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A364" s="48">
         <v>1530097</v>
       </c>
@@ -23893,7 +23894,7 @@
       <c r="S364" s="48"/>
       <c r="T364" s="48"/>
     </row>
-    <row r="365" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="365" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A365" s="48">
         <v>1530100</v>
       </c>
@@ -23945,7 +23946,7 @@
       <c r="S365" s="48"/>
       <c r="T365" s="48"/>
     </row>
-    <row r="366" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="366" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A366" s="48">
         <v>1530101</v>
       </c>
@@ -23997,7 +23998,7 @@
       <c r="S366" s="48"/>
       <c r="T366" s="48"/>
     </row>
-    <row r="367" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="367" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A367" s="48">
         <v>1530104</v>
       </c>
@@ -24049,7 +24050,7 @@
       <c r="S367" s="48"/>
       <c r="T367" s="48"/>
     </row>
-    <row r="368" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="368" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A368" s="48">
         <v>1530105</v>
       </c>
@@ -24101,7 +24102,7 @@
       <c r="S368" s="48"/>
       <c r="T368" s="48"/>
     </row>
-    <row r="369" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="369" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A369" s="48">
         <v>1530108</v>
       </c>
@@ -24153,7 +24154,7 @@
       <c r="S369" s="48"/>
       <c r="T369" s="48"/>
     </row>
-    <row r="370" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="370" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A370" s="48">
         <v>1530109</v>
       </c>
@@ -24205,7 +24206,7 @@
       <c r="S370" s="48"/>
       <c r="T370" s="48"/>
     </row>
-    <row r="371" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="371" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A371" s="48">
         <v>1530112</v>
       </c>
@@ -24257,7 +24258,7 @@
       <c r="S371" s="48"/>
       <c r="T371" s="48"/>
     </row>
-    <row r="372" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="372" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A372" s="48">
         <v>1530113</v>
       </c>
@@ -24309,7 +24310,7 @@
       <c r="S372" s="48"/>
       <c r="T372" s="48"/>
     </row>
-    <row r="373" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="373" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A373" s="48">
         <v>1530116</v>
       </c>
@@ -24361,7 +24362,7 @@
       <c r="S373" s="48"/>
       <c r="T373" s="48"/>
     </row>
-    <row r="374" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="374" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A374" s="48">
         <v>1530117</v>
       </c>
@@ -24413,7 +24414,7 @@
       <c r="S374" s="48"/>
       <c r="T374" s="48"/>
     </row>
-    <row r="375" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="375" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A375" s="48">
         <v>1530120</v>
       </c>
@@ -24465,7 +24466,7 @@
       <c r="S375" s="48"/>
       <c r="T375" s="48"/>
     </row>
-    <row r="376" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="376" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A376" s="48">
         <v>1530121</v>
       </c>
@@ -24517,7 +24518,7 @@
       <c r="S376" s="48"/>
       <c r="T376" s="48"/>
     </row>
-    <row r="377" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="377" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A377" s="48">
         <v>1530124</v>
       </c>
@@ -24569,7 +24570,7 @@
       <c r="S377" s="48"/>
       <c r="T377" s="48"/>
     </row>
-    <row r="378" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="378" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A378" s="48">
         <v>1530125</v>
       </c>
@@ -24621,7 +24622,7 @@
       <c r="S378" s="48"/>
       <c r="T378" s="48"/>
     </row>
-    <row r="379" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="379" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A379" s="48">
         <v>1530128</v>
       </c>
@@ -24673,7 +24674,7 @@
       <c r="S379" s="48"/>
       <c r="T379" s="48"/>
     </row>
-    <row r="380" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="380" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A380" s="48">
         <v>1530129</v>
       </c>
@@ -24725,7 +24726,7 @@
       <c r="S380" s="48"/>
       <c r="T380" s="48"/>
     </row>
-    <row r="381" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="381" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A381" s="48">
         <v>1530132</v>
       </c>
@@ -24777,7 +24778,7 @@
       <c r="S381" s="48"/>
       <c r="T381" s="48"/>
     </row>
-    <row r="382" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="382" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A382" s="48">
         <v>1530133</v>
       </c>
@@ -24829,7 +24830,7 @@
       <c r="S382" s="48"/>
       <c r="T382" s="48"/>
     </row>
-    <row r="383" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="383" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A383" s="48">
         <v>1530136</v>
       </c>
@@ -24881,7 +24882,7 @@
       <c r="S383" s="48"/>
       <c r="T383" s="48"/>
     </row>
-    <row r="384" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="384" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A384" s="48">
         <v>1530137</v>
       </c>
@@ -24933,7 +24934,7 @@
       <c r="S384" s="48"/>
       <c r="T384" s="48"/>
     </row>
-    <row r="385" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="385" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A385" s="48">
         <v>1530140</v>
       </c>
@@ -24985,7 +24986,7 @@
       <c r="S385" s="48"/>
       <c r="T385" s="48"/>
     </row>
-    <row r="386" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="386" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A386" s="48">
         <v>1530141</v>
       </c>
@@ -25037,7 +25038,7 @@
       <c r="S386" s="48"/>
       <c r="T386" s="48"/>
     </row>
-    <row r="387" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="387" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A387" s="48">
         <v>1530144</v>
       </c>
@@ -25089,7 +25090,7 @@
       <c r="S387" s="48"/>
       <c r="T387" s="48"/>
     </row>
-    <row r="388" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="388" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A388" s="48">
         <v>1530145</v>
       </c>
@@ -25141,7 +25142,7 @@
       <c r="S388" s="48"/>
       <c r="T388" s="48"/>
     </row>
-    <row r="389" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="389" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A389" s="48">
         <v>1530152</v>
       </c>
@@ -25193,7 +25194,7 @@
       <c r="S389" s="48"/>
       <c r="T389" s="48"/>
     </row>
-    <row r="390" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="390" s="4" customFormat="1" ht="14.4" spans="1:20">
       <c r="A390" s="48">
         <v>1530149</v>
       </c>
@@ -25245,7 +25246,7 @@
       <c r="S390" s="48"/>
       <c r="T390" s="48"/>
     </row>
-    <row r="391" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="391" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A391" s="95">
         <v>1010123</v>
       </c>
@@ -25297,7 +25298,7 @@
       <c r="S391" s="107"/>
       <c r="T391" s="95"/>
     </row>
-    <row r="392" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="392" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A392" s="95">
         <v>1010154</v>
       </c>
@@ -25349,7 +25350,7 @@
       <c r="S392" s="107"/>
       <c r="T392" s="95"/>
     </row>
-    <row r="393" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="393" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A393" s="95">
         <v>1010155</v>
       </c>
@@ -25401,7 +25402,7 @@
       <c r="S393" s="107"/>
       <c r="T393" s="95"/>
     </row>
-    <row r="394" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="394" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A394" s="95">
         <v>1010162</v>
       </c>
@@ -25453,7 +25454,7 @@
       <c r="S394" s="107"/>
       <c r="T394" s="95"/>
     </row>
-    <row r="395" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="395" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A395" s="95">
         <v>1010163</v>
       </c>
@@ -25505,7 +25506,7 @@
       <c r="S395" s="107"/>
       <c r="T395" s="95"/>
     </row>
-    <row r="396" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="396" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A396" s="95">
         <v>1010165</v>
       </c>
@@ -25557,7 +25558,7 @@
       <c r="S396" s="107"/>
       <c r="T396" s="95"/>
     </row>
-    <row r="397" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="397" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A397" s="95">
         <v>1010158</v>
       </c>
@@ -25609,7 +25610,7 @@
       <c r="S397" s="107"/>
       <c r="T397" s="95"/>
     </row>
-    <row r="398" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="398" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A398" s="95">
         <v>1010169</v>
       </c>
@@ -25661,7 +25662,7 @@
       <c r="S398" s="107"/>
       <c r="T398" s="95"/>
     </row>
-    <row r="399" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="399" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A399" s="95">
         <v>1010159</v>
       </c>
@@ -25713,7 +25714,7 @@
       <c r="S399" s="107"/>
       <c r="T399" s="95"/>
     </row>
-    <row r="400" s="15" customFormat="1" ht="13.5" spans="1:20">
+    <row r="400" s="15" customFormat="1" ht="14.4" spans="1:20">
       <c r="A400" s="169">
         <v>1010170</v>
       </c>
@@ -25765,7 +25766,7 @@
       <c r="S400" s="169"/>
       <c r="T400" s="169"/>
     </row>
-    <row r="401" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="401" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A401" s="95">
         <v>1540000</v>
       </c>
@@ -25817,7 +25818,7 @@
       <c r="S401" s="107"/>
       <c r="T401" s="95"/>
     </row>
-    <row r="402" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="402" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A402" s="95">
         <v>1540001</v>
       </c>
@@ -25869,7 +25870,7 @@
       <c r="S402" s="107"/>
       <c r="T402" s="95"/>
     </row>
-    <row r="403" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="403" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A403" s="95">
         <v>1540002</v>
       </c>
@@ -25921,7 +25922,7 @@
       <c r="S403" s="107"/>
       <c r="T403" s="95"/>
     </row>
-    <row r="404" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="404" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A404" s="95">
         <v>1540003</v>
       </c>
@@ -25973,7 +25974,7 @@
       <c r="S404" s="107"/>
       <c r="T404" s="95"/>
     </row>
-    <row r="405" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="405" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A405" s="95">
         <v>1540004</v>
       </c>
@@ -26025,7 +26026,7 @@
       <c r="S405" s="107"/>
       <c r="T405" s="95"/>
     </row>
-    <row r="406" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="406" s="8" customFormat="1" ht="14.4" spans="1:20">
       <c r="A406" s="95">
         <v>1540005</v>
       </c>
@@ -26410,7 +26411,7 @@
       </c>
       <c r="S413" s="107"/>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" ht="13" customHeight="1" spans="1:19">
       <c r="A414" s="95">
         <v>1540011</v>
       </c>
@@ -27322,7 +27323,7 @@
       <c r="S432" s="177"/>
       <c r="T432" s="177"/>
     </row>
-    <row r="433" s="12" customFormat="1" ht="13.5" spans="1:20">
+    <row r="433" s="12" customFormat="1" ht="14.4" spans="1:20">
       <c r="A433" s="95">
         <v>1540030</v>
       </c>
@@ -27884,7 +27885,7 @@
       </c>
       <c r="S444" s="182"/>
     </row>
-    <row r="445" s="19" customFormat="1" ht="13.5" spans="1:19">
+    <row r="445" s="19" customFormat="1" ht="14.4" spans="1:19">
       <c r="A445" s="182">
         <v>1540042</v>
       </c>
@@ -27930,7 +27931,7 @@
       </c>
       <c r="S445" s="182"/>
     </row>
-    <row r="446" s="19" customFormat="1" ht="13.5" spans="1:19">
+    <row r="446" s="19" customFormat="1" ht="14.4" spans="1:19">
       <c r="A446" s="182">
         <v>1540043</v>
       </c>
@@ -28467,7 +28468,9 @@
       <c r="T456" s="187"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T456"/>
+  <autoFilter ref="A1:T456">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6大门派师傅" sqref="G20:G25"/>
   </dataValidations>
